--- a/Code/R/Magnan/PerfSearch_Regression_Balanced.xlsx
+++ b/Code/R/Magnan/PerfSearch_Regression_Balanced.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -14,12 +14,15 @@
     <sheet name="ThresholdTuning" sheetId="4" r:id="rId5"/>
     <sheet name="FeatureSpaceCmp" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TenfoldCV_Coarse!$A$1:$I$73</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>MCC</t>
   </si>
@@ -55,9 +58,6 @@
   </si>
   <si>
     <t>2800/1</t>
-  </si>
-  <si>
-    <t>AUCPR</t>
   </si>
   <si>
     <t>PSF</t>
@@ -629,11 +629,11 @@
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TenfoldCV_Coarse!$C$1</c:f>
+              <c:f>TenfoldCV_Coarse!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -647,34 +647,100 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>TenfoldCV_Coarse!$B$2:$B$6</c:f>
+              <c:f>TenfoldCV_Coarse!$B$2:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TenfoldCV_Coarse!$C$2:$C$6</c:f>
+              <c:f>TenfoldCV_Coarse!$D$2:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.74134657118055403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73753677179783805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73540581597222199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72825038580246904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72714421778549398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73152367862654399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72729793595679104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71111231674382802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68591459297839497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64311463155864201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58002387152777801</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TenfoldCV_Coarse!$D$1</c:f>
+              <c:f>TenfoldCV_Coarse!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AUCPR</c:v>
+                  <c:v>Accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -684,41 +750,416 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>TenfoldCV_Coarse!$B$2:$B$6</c:f>
+              <c:f>TenfoldCV_Coarse!$B$2:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>TenfoldCV_Coarse!$D$2:$D$6</c:f>
+              <c:f>TenfoldCV_Coarse!$F$2:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.70572916666666696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68923611111111105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68576388888888895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68055555555555602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68055555555555602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68836805555555602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69704861111111105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67708333333333304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65277777777777801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61371527777777801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5703125</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="38911360"/>
-        <c:axId val="38913152"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV_Coarse!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$G$2:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.71527777777777801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67534722222222199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72395833333333304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63368055555555602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75520833333333304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67881944444444398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71354166666666696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59722222222222199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV_Coarse!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$H$2:$H$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.69618055555555602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.703125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64756944444444398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72743055555555602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70486111111111105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62152777777777801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69097222222222199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67534722222222199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59201388888888895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63020833333333304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TenfoldCV_Coarse!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TenfoldCV_Coarse!$I$2:$I$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.41153338409116402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37861832229414599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.372616525976119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36270856299851001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36153852878658399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.380148140437785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39412632755708299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35416880166057302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.307837235611648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22755438834046501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14726420810214499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="155053440"/>
+        <c:axId val="155051904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38911360"/>
+        <c:axId val="155053440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38913152"/>
+        <c:crossAx val="155051904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38913152"/>
+        <c:axId val="155051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +1167,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38911360"/>
+        <c:crossAx val="155053440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -739,7 +1180,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -749,20 +1190,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1065,51 +1506,2142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9" ht="30">
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>6000</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.73200291763117198</v>
+      </c>
+      <c r="E2">
+        <v>0.49636321070565798</v>
+      </c>
+      <c r="F2">
+        <v>0.6953125</v>
+      </c>
+      <c r="G2">
+        <v>0.70138888888888895</v>
+      </c>
+      <c r="H2">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="I2">
+        <v>0.390653848900192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3">
+        <v>6000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.73876651716821096</v>
+      </c>
+      <c r="E3">
+        <v>0.51166344600185698</v>
+      </c>
+      <c r="F3">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G3">
+        <v>0.73784722222222199</v>
+      </c>
+      <c r="H3">
+        <v>0.65625</v>
+      </c>
+      <c r="I3">
+        <v>0.39541578088870799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4">
+        <v>6000</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.74134657118055403</v>
+      </c>
+      <c r="E4">
+        <v>0.49636321070565798</v>
+      </c>
+      <c r="F4">
+        <v>0.70572916666666696</v>
+      </c>
+      <c r="G4">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="H4">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="I4">
+        <v>0.41153338409116402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5">
+        <v>6000</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.739501953125</v>
+      </c>
+      <c r="E5">
+        <v>0.50811942271111898</v>
+      </c>
+      <c r="F5">
+        <v>0.69878472222222199</v>
+      </c>
+      <c r="G5">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H5">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I5">
+        <v>0.39800694839781797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>6000</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.72948917341820896</v>
+      </c>
+      <c r="E6">
+        <v>0.50623673951100101</v>
+      </c>
+      <c r="F6">
+        <v>0.6953125</v>
+      </c>
+      <c r="G6">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H6">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I6">
+        <v>0.39088487043720499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.72497407889660304</v>
+      </c>
+      <c r="E7">
+        <v>0.49636321070565798</v>
+      </c>
+      <c r="F7">
+        <v>0.69184027777777801</v>
+      </c>
+      <c r="G7">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="H7">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="I7">
+        <v>0.38370889158641103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5500</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.72852768132716095</v>
+      </c>
+      <c r="E8">
+        <v>0.432615115885507</v>
+      </c>
+      <c r="F8">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G8">
+        <v>0.61805555555555602</v>
+      </c>
+      <c r="H8">
+        <v>0.74826388888888895</v>
+      </c>
+      <c r="I8">
+        <v>0.36946482543071202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5500</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.73476381655092604</v>
+      </c>
+      <c r="E9">
+        <v>0.43038594207814901</v>
+      </c>
+      <c r="F9">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G9">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H9">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I9">
+        <v>0.36867440708222998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5500</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.73753677179783805</v>
+      </c>
+      <c r="E10">
+        <v>0.46587787265631198</v>
+      </c>
+      <c r="F10">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="G10">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="H10">
+        <v>0.703125</v>
+      </c>
+      <c r="I10">
+        <v>0.37861832229414599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5500</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.73521291473765404</v>
+      </c>
+      <c r="E11">
+        <v>0.59988215037943304</v>
+      </c>
+      <c r="F11">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G11">
+        <v>0.81770833333333304</v>
+      </c>
+      <c r="H11">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="I11">
+        <v>0.38034938546855002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5500</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.72605914834105101</v>
+      </c>
+      <c r="E12">
+        <v>0.47154311228516199</v>
+      </c>
+      <c r="F12">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G12">
+        <v>0.66493055555555602</v>
+      </c>
+      <c r="H12">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I12">
+        <v>0.36480330905797398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5500</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0.72117030767746804</v>
+      </c>
+      <c r="E13">
+        <v>0.45492165038073801</v>
+      </c>
+      <c r="F13">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G13">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H13">
+        <v>0.703125</v>
+      </c>
+      <c r="I13">
+        <v>0.35294208035712599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.72792185088734596</v>
+      </c>
+      <c r="E14">
+        <v>0.53992539676540596</v>
+      </c>
+      <c r="F14">
+        <v>0.6796875</v>
+      </c>
+      <c r="G14">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="H14">
+        <v>0.61284722222222199</v>
+      </c>
+      <c r="I14">
+        <v>0.36262979295217301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.73268410011574003</v>
+      </c>
+      <c r="E15">
+        <v>0.52684463963755102</v>
+      </c>
+      <c r="F15">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G15">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H15">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="I15">
+        <v>0.36871623456449498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5000</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.73540581597222199</v>
+      </c>
+      <c r="E16">
+        <v>0.50249073950634304</v>
+      </c>
+      <c r="F16">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="G16">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="H16">
+        <v>0.64756944444444398</v>
+      </c>
+      <c r="I16">
+        <v>0.372616525976119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.73253641010802395</v>
+      </c>
+      <c r="E17">
+        <v>0.53992539676540596</v>
+      </c>
+      <c r="F17">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G17">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="H17">
+        <v>0.61284722222222199</v>
+      </c>
+      <c r="I17">
+        <v>0.37369168673518499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>0.72427481192129695</v>
+      </c>
+      <c r="E18">
+        <v>0.50954722292719101</v>
+      </c>
+      <c r="F18">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G18">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H18">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="I18">
+        <v>0.36575154352556899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>0.71849380304784005</v>
+      </c>
+      <c r="E19">
+        <v>0.47641427073630299</v>
+      </c>
+      <c r="F19">
+        <v>0.671875</v>
+      </c>
+      <c r="G19">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="H19">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I19">
+        <v>0.34375207219996801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4500</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.71978081597222199</v>
+      </c>
+      <c r="E20">
+        <v>0.41822853469047899</v>
+      </c>
+      <c r="F20">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G20">
+        <v>0.609375</v>
+      </c>
+      <c r="H20">
+        <v>0.74652777777777801</v>
+      </c>
+      <c r="I20">
+        <v>0.35929817948006498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4500</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.72589638792438205</v>
+      </c>
+      <c r="E21">
+        <v>0.42268394292331901</v>
+      </c>
+      <c r="F21">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G21">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="H21">
+        <v>0.73611111111111105</v>
+      </c>
+      <c r="I21">
+        <v>0.36839109586454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4500</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.72825038580246904</v>
+      </c>
+      <c r="E22">
+        <v>0.42863279805974502</v>
+      </c>
+      <c r="F22">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G22">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="H22">
+        <v>0.72743055555555602</v>
+      </c>
+      <c r="I22">
+        <v>0.36270856299851001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4500</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0.72435016396605001</v>
+      </c>
+      <c r="E23">
+        <v>0.42268394292331901</v>
+      </c>
+      <c r="F23">
+        <v>0.6796875</v>
+      </c>
+      <c r="G23">
+        <v>0.625</v>
+      </c>
+      <c r="H23">
+        <v>0.734375</v>
+      </c>
+      <c r="I23">
+        <v>0.36154406262128502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4500</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>0.71603431230709902</v>
+      </c>
+      <c r="E24">
+        <v>0.42241232210574198</v>
+      </c>
+      <c r="F24">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G24">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H24">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="I24">
+        <v>0.35778466872204401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4500</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>0.71028645833333304</v>
+      </c>
+      <c r="E25">
+        <v>0.42268394292331901</v>
+      </c>
+      <c r="F25">
+        <v>0.66927083333333304</v>
+      </c>
+      <c r="G25">
+        <v>0.625</v>
+      </c>
+      <c r="H25">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I25">
+        <v>0.33987654065040102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4000</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.72089602623456694</v>
+      </c>
+      <c r="E26">
+        <v>0.58289465279158903</v>
+      </c>
+      <c r="F26">
+        <v>0.67274305555555602</v>
+      </c>
+      <c r="G26">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="H26">
+        <v>0.58506944444444398</v>
+      </c>
+      <c r="I26">
+        <v>0.35092308388903198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4000</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.72493489583333304</v>
+      </c>
+      <c r="E27">
+        <v>0.45576204663358399</v>
+      </c>
+      <c r="F27">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G27">
+        <v>0.65625</v>
+      </c>
+      <c r="H27">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I27">
+        <v>0.35623847717095902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4000</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.72714421778549398</v>
+      </c>
+      <c r="E28">
+        <v>0.45576204663358399</v>
+      </c>
+      <c r="F28">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G28">
+        <v>0.65625</v>
+      </c>
+      <c r="H28">
+        <v>0.70486111111111105</v>
+      </c>
+      <c r="I28">
+        <v>0.36153852878658399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4000</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0.72442250192901203</v>
+      </c>
+      <c r="E29">
+        <v>0.47140436221141402</v>
+      </c>
+      <c r="F29">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G29">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H29">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="I29">
+        <v>0.35249483953800098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4000</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>0.72031430844907496</v>
+      </c>
+      <c r="E30">
+        <v>0.47163696821892898</v>
+      </c>
+      <c r="F30">
+        <v>0.67447916666666696</v>
+      </c>
+      <c r="G30">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="H30">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="I30">
+        <v>0.34904724346849902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4000</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>0.71481963734567999</v>
+      </c>
+      <c r="E31">
+        <v>0.45576204663358399</v>
+      </c>
+      <c r="F31">
+        <v>0.67100694444444398</v>
+      </c>
+      <c r="G31">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H31">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I31">
+        <v>0.34257657655636897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3500</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+      <c r="D32">
+        <v>0.72609531732253196</v>
+      </c>
+      <c r="E32">
+        <v>0.55011639574845606</v>
+      </c>
+      <c r="F32">
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="G32">
+        <v>0.74305555555555602</v>
+      </c>
+      <c r="H32">
+        <v>0.62847222222222199</v>
+      </c>
+      <c r="I32">
+        <v>0.37399101733297202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3500</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.72965494791666696</v>
+      </c>
+      <c r="E33">
+        <v>0.53925891286535899</v>
+      </c>
+      <c r="F33">
+        <v>0.68836805555555602</v>
+      </c>
+      <c r="G33">
+        <v>0.74826388888888895</v>
+      </c>
+      <c r="H33">
+        <v>0.62847222222222199</v>
+      </c>
+      <c r="I33">
+        <v>0.37946864529510999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3500</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.73152367862654399</v>
+      </c>
+      <c r="E34">
+        <v>0.55011639574845606</v>
+      </c>
+      <c r="F34">
+        <v>0.68836805555555602</v>
+      </c>
+      <c r="G34">
+        <v>0.75520833333333304</v>
+      </c>
+      <c r="H34">
+        <v>0.62152777777777801</v>
+      </c>
+      <c r="I34">
+        <v>0.380148140437785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3500</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0.73011911651234596</v>
+      </c>
+      <c r="E35">
+        <v>0.53925891286535899</v>
+      </c>
+      <c r="F35">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="G35">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="H35">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="I35">
+        <v>0.38054242813764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3500</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>0.72586323302469202</v>
+      </c>
+      <c r="E36">
+        <v>0.53925891286535899</v>
+      </c>
+      <c r="F36">
+        <v>0.68923611111111105</v>
+      </c>
+      <c r="G36">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="H36">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="I36">
+        <v>0.38054242813764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3500</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>0.72093822337963098</v>
+      </c>
+      <c r="E37">
+        <v>0.53925891286535899</v>
+      </c>
+      <c r="F37">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="G37">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="H37">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="I37">
+        <v>0.35910525049157499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3000</v>
+      </c>
+      <c r="C38">
+        <v>0.3</v>
+      </c>
+      <c r="D38">
+        <v>0.72729793595679104</v>
+      </c>
+      <c r="E38">
+        <v>0.50698632111480202</v>
+      </c>
+      <c r="F38">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G38">
+        <v>0.703125</v>
+      </c>
+      <c r="H38">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I38">
+        <v>0.39412632755708299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3000</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.72729793595679104</v>
+      </c>
+      <c r="E39">
+        <v>0.50698632111480202</v>
+      </c>
+      <c r="F39">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G39">
+        <v>0.703125</v>
+      </c>
+      <c r="H39">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I39">
+        <v>0.39412632755708299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3000</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.72729793595679104</v>
+      </c>
+      <c r="E40">
+        <v>0.50698632111480202</v>
+      </c>
+      <c r="F40">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G40">
+        <v>0.703125</v>
+      </c>
+      <c r="H40">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I40">
+        <v>0.39412632755708299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3000</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0.72729793595679104</v>
+      </c>
+      <c r="E41">
+        <v>0.50698632111480202</v>
+      </c>
+      <c r="F41">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G41">
+        <v>0.703125</v>
+      </c>
+      <c r="H41">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I41">
+        <v>0.39412632755708299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3000</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>0.72729793595679104</v>
+      </c>
+      <c r="E42">
+        <v>0.50698632111480202</v>
+      </c>
+      <c r="F42">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G42">
+        <v>0.703125</v>
+      </c>
+      <c r="H42">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I42">
+        <v>0.39412632755708299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3000</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>0.72729793595679104</v>
+      </c>
+      <c r="E43">
+        <v>0.50698632111480202</v>
+      </c>
+      <c r="F43">
+        <v>0.69704861111111105</v>
+      </c>
+      <c r="G43">
+        <v>0.703125</v>
+      </c>
+      <c r="H43">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="I43">
+        <v>0.39412632755708299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2500</v>
+      </c>
+      <c r="C44">
+        <v>0.3</v>
+      </c>
+      <c r="D44">
+        <v>0.71111231674382802</v>
+      </c>
+      <c r="E44">
+        <v>0.50349061018830799</v>
+      </c>
+      <c r="F44">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G44">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H44">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I44">
+        <v>0.35416880166057302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2500</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.71111231674382802</v>
+      </c>
+      <c r="E45">
+        <v>0.50349061018830799</v>
+      </c>
+      <c r="F45">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G45">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H45">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I45">
+        <v>0.35416880166057302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2500</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0.71111231674382802</v>
+      </c>
+      <c r="E46">
+        <v>0.50349061018830799</v>
+      </c>
+      <c r="F46">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G46">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H46">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I46">
+        <v>0.35416880166057302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2500</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>0.71111231674382802</v>
+      </c>
+      <c r="E47">
+        <v>0.50349061018830799</v>
+      </c>
+      <c r="F47">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G47">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H47">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I47">
+        <v>0.35416880166057302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2500</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>0.71111231674382802</v>
+      </c>
+      <c r="E48">
+        <v>0.50349061018830799</v>
+      </c>
+      <c r="F48">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G48">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H48">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I48">
+        <v>0.35416880166057302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2500</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>0.71111231674382802</v>
+      </c>
+      <c r="E49">
+        <v>0.50349061018830799</v>
+      </c>
+      <c r="F49">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G49">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H49">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I49">
+        <v>0.35416880166057302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2000</v>
+      </c>
+      <c r="C50">
+        <v>0.3</v>
+      </c>
+      <c r="D50">
+        <v>0.68591459297839497</v>
+      </c>
+      <c r="E50">
+        <v>0.558407459184178</v>
+      </c>
+      <c r="F50">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G50">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H50">
+        <v>0.59201388888888895</v>
+      </c>
+      <c r="I50">
+        <v>0.307837235611648</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2000</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.68591459297839497</v>
+      </c>
+      <c r="E51">
+        <v>0.558407459184178</v>
+      </c>
+      <c r="F51">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G51">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H51">
+        <v>0.59201388888888895</v>
+      </c>
+      <c r="I51">
+        <v>0.307837235611648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2000</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0.68591459297839497</v>
+      </c>
+      <c r="E52">
+        <v>0.558407459184178</v>
+      </c>
+      <c r="F52">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G52">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H52">
+        <v>0.59201388888888895</v>
+      </c>
+      <c r="I52">
+        <v>0.307837235611648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2000</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0.68591459297839497</v>
+      </c>
+      <c r="E53">
+        <v>0.558407459184178</v>
+      </c>
+      <c r="F53">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G53">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H53">
+        <v>0.59201388888888895</v>
+      </c>
+      <c r="I53">
+        <v>0.307837235611648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2000</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>0.68591459297839497</v>
+      </c>
+      <c r="E54">
+        <v>0.558407459184178</v>
+      </c>
+      <c r="F54">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G54">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H54">
+        <v>0.59201388888888895</v>
+      </c>
+      <c r="I54">
+        <v>0.307837235611648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2000</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>0.68591459297839497</v>
+      </c>
+      <c r="E55">
+        <v>0.558407459184178</v>
+      </c>
+      <c r="F55">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G55">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="H55">
+        <v>0.59201388888888895</v>
+      </c>
+      <c r="I55">
+        <v>0.307837235611648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1500</v>
+      </c>
+      <c r="C56">
+        <v>0.3</v>
+      </c>
+      <c r="D56">
+        <v>0.64311463155864201</v>
+      </c>
+      <c r="E56">
+        <v>0.45719970437680701</v>
+      </c>
+      <c r="F56">
+        <v>0.61371527777777801</v>
+      </c>
+      <c r="G56">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H56">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I56">
+        <v>0.22755438834046501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1500</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.64311463155864201</v>
+      </c>
+      <c r="E57">
+        <v>0.45719970437680701</v>
+      </c>
+      <c r="F57">
+        <v>0.61371527777777801</v>
+      </c>
+      <c r="G57">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H57">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I57">
+        <v>0.22755438834046501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1500</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.64311463155864201</v>
+      </c>
+      <c r="E58">
+        <v>0.45719970437680701</v>
+      </c>
+      <c r="F58">
+        <v>0.61371527777777801</v>
+      </c>
+      <c r="G58">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H58">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I58">
+        <v>0.22755438834046501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1500</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>0.64311463155864201</v>
+      </c>
+      <c r="E59">
+        <v>0.45719970437680701</v>
+      </c>
+      <c r="F59">
+        <v>0.61371527777777801</v>
+      </c>
+      <c r="G59">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H59">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I59">
+        <v>0.22755438834046501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1500</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>0.64311463155864201</v>
+      </c>
+      <c r="E60">
+        <v>0.45719970437680701</v>
+      </c>
+      <c r="F60">
+        <v>0.61371527777777801</v>
+      </c>
+      <c r="G60">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H60">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I60">
+        <v>0.22755438834046501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1500</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>0.64311463155864201</v>
+      </c>
+      <c r="E61">
+        <v>0.45719970437680701</v>
+      </c>
+      <c r="F61">
+        <v>0.61371527777777801</v>
+      </c>
+      <c r="G61">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H61">
+        <v>0.63020833333333304</v>
+      </c>
+      <c r="I61">
+        <v>0.22755438834046501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1000</v>
+      </c>
+      <c r="C62">
+        <v>0.3</v>
+      </c>
+      <c r="D62">
+        <v>0.61550564236111105</v>
+      </c>
+      <c r="E62">
+        <v>0.94875965883895197</v>
+      </c>
+      <c r="F62">
+        <v>0.59288194444444398</v>
+      </c>
+      <c r="G62">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="H62">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I62">
+        <v>0.19453420082629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1000</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.59651994116512297</v>
+      </c>
+      <c r="E63">
+        <v>0.300479750774095</v>
+      </c>
+      <c r="F63">
+        <v>0.58246527777777801</v>
+      </c>
+      <c r="G63">
+        <v>0.52256944444444398</v>
+      </c>
+      <c r="H63">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="I63">
+        <v>0.16612682628126901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1000</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.58002387152777801</v>
+      </c>
+      <c r="E64">
+        <v>1.20253088385691</v>
+      </c>
+      <c r="F64">
+        <v>0.5703125</v>
+      </c>
+      <c r="G64">
+        <v>0.71875</v>
+      </c>
+      <c r="H64">
+        <v>0.421875</v>
+      </c>
+      <c r="I64">
+        <v>0.14726420810214499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1000</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>0.55490752797067999</v>
+      </c>
+      <c r="E65">
+        <v>1.2997276934650901</v>
+      </c>
+      <c r="F65">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="G65">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="H65">
+        <v>0.42881944444444398</v>
+      </c>
+      <c r="I65">
+        <v>0.10013868081014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>0.55306592399691401</v>
+      </c>
+      <c r="E66">
+        <v>-0.276261162875658</v>
+      </c>
+      <c r="F66">
+        <v>0.55121527777777801</v>
+      </c>
+      <c r="G66">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="H66">
+        <v>0.65451388888888895</v>
+      </c>
+      <c r="I66">
+        <v>0.104689110382403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1000</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>0.55306592399691401</v>
+      </c>
+      <c r="E67">
+        <v>-0.276261162875658</v>
+      </c>
+      <c r="F67">
+        <v>0.55121527777777801</v>
+      </c>
+      <c r="G67">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="H67">
+        <v>0.65451388888888895</v>
+      </c>
+      <c r="I67">
+        <v>0.104689110382403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>500</v>
+      </c>
+      <c r="C68">
+        <v>0.3</v>
+      </c>
+      <c r="D68">
+        <v>0.69306098090277801</v>
+      </c>
+      <c r="E68">
+        <v>0.53181319625313295</v>
+      </c>
+      <c r="F68">
+        <v>0.65625</v>
+      </c>
+      <c r="G68">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H68">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="I68">
+        <v>0.31420934433383102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>500</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.68999565972222299</v>
+      </c>
+      <c r="E69">
+        <v>0.63217645548799695</v>
+      </c>
+      <c r="F69">
+        <v>0.65451388888888895</v>
+      </c>
+      <c r="G69">
+        <v>0.75868055555555602</v>
+      </c>
+      <c r="H69">
+        <v>0.55034722222222199</v>
+      </c>
+      <c r="I69">
+        <v>0.31596062277470999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>500</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.68880811149691301</v>
+      </c>
+      <c r="E70">
+        <v>0.61209490284840895</v>
+      </c>
+      <c r="F70">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="G70">
+        <v>0.74131944444444398</v>
+      </c>
+      <c r="H70">
+        <v>0.56423611111111105</v>
+      </c>
+      <c r="I70">
+        <v>0.310462142368989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>500</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0.65322687596450602</v>
+      </c>
+      <c r="E71">
+        <v>0.57774929296451805</v>
+      </c>
+      <c r="F71">
+        <v>0.625</v>
+      </c>
+      <c r="G71">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H71">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="I71">
+        <v>0.25060500548276798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>500</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>0.65097234278549398</v>
+      </c>
+      <c r="E72">
+        <v>0.792259082869752</v>
+      </c>
+      <c r="F72">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="G72">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="H72">
+        <v>0.48263888888888901</v>
+      </c>
+      <c r="I72">
+        <v>0.25689756800463498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>500</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>0.66729058159722099</v>
+      </c>
+      <c r="E73">
+        <v>0.45275197968255798</v>
+      </c>
+      <c r="F73">
+        <v>0.63715277777777801</v>
+      </c>
+      <c r="G73">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="H73">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I73">
+        <v>0.27490444590662899</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I73">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2914,7 +5446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D8"/>
     </sheetView>
   </sheetViews>
@@ -2926,7 +5458,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -2940,37 +5472,37 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
